--- a/ApolloQA/Data/RatingManual/GA/VA00053.TerritoryFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00053.TerritoryFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.TerritoryFactors" sheetId="1" r:id="R41540935e07544c0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00053.TerritoryFactors" sheetId="1" r:id="R3ecb671e323c41ea"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,7 +23,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0812</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -31,7 +31,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -39,7 +39,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -47,7 +47,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -55,7 +55,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -63,7 +63,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.8502</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -71,7 +71,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -79,7 +79,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.4691</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -87,7 +87,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -95,7 +95,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.5416</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -103,7 +103,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0812</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0812</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -119,7 +119,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0812</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -127,7 +127,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0812</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -135,7 +135,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0812</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -143,7 +143,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0812</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -151,7 +151,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -159,7 +159,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.8992</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -167,7 +167,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.7704</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -175,7 +175,7 @@
         <x:v>418</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9783</x:v>
+        <x:v>1.6923</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -183,7 +183,7 @@
         <x:v>419</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9783</x:v>
+        <x:v>1.4691</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -191,7 +191,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0298</x:v>
+        <x:v>1.3986</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -199,7 +199,7 @@
         <x:v>518</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9783</x:v>
+        <x:v>1.3302</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -207,7 +207,7 @@
         <x:v>519</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8260</x:v>
+        <x:v>0.9111</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -215,7 +215,7 @@
         <x:v>523</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7929</x:v>
+        <x:v>0.8718</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -223,7 +223,7 @@
         <x:v>619</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9724</x:v>
+        <x:v>1.1374</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
